--- a/data/0. old data/0. raw/2016/companies/sanofi.xlsx
+++ b/data/0. old data/0. raw/2016/companies/sanofi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="0" windowWidth="28540" windowHeight="12360"/>
+    <workbookView xWindow="4680" yWindow="3420" windowWidth="28540" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="sanofi" sheetId="1" r:id="rId1"/>
@@ -1264,10 +1264,10 @@
     <t xml:space="preserve">Spital Thurgau AG </t>
   </si>
   <si>
-    <t xml:space="preserve">UNIVERSITATSSPIT AL ZURICH </t>
-  </si>
-  <si>
     <t xml:space="preserve">UNIVERSITY HOSPITAL BASEL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIVERSITATSSPITAL ZURICH </t>
   </si>
 </sst>
 </file>
@@ -2118,9 +2118,9 @@
   <dimension ref="A1:M171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A166" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A157" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A167" sqref="A167"/>
+      <selection pane="bottomLeft" activeCell="A166" sqref="A166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -6877,7 +6877,7 @@
     </row>
     <row r="166" spans="1:13">
       <c r="A166" s="3" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>217</v>
@@ -6905,7 +6905,7 @@
     </row>
     <row r="167" spans="1:13">
       <c r="A167" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>262</v>

--- a/data/0. old data/0. raw/2016/companies/sanofi.xlsx
+++ b/data/0. old data/0. raw/2016/companies/sanofi.xlsx
@@ -169,9 +169,6 @@
     <t>Arztpraxis FMH Kardiologie Kappelistrasse 6</t>
   </si>
   <si>
-    <t>Arztpraxis FMH Allgemeine Innere Medizin Gubelstrasse 17</t>
-  </si>
-  <si>
     <t>Ospedale Regionale Bellinzona e Valli Ospedale San Giovanni EOC Radiologische Klinik Via Ospedale</t>
   </si>
   <si>
@@ -1268,6 +1265,9 @@
   </si>
   <si>
     <t xml:space="preserve">UNIVERSITATSSPITAL ZURICH </t>
+  </si>
+  <si>
+    <t>Praxis Peter Gerritsen Gubelstrasse 17</t>
   </si>
 </sst>
 </file>
@@ -2117,10 +2117,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M171"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A157" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A166" sqref="A166"/>
+      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -2174,13 +2174,13 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>19</v>
@@ -2199,18 +2199,18 @@
         <v>825.25</v>
       </c>
       <c r="M2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>20</v>
@@ -2229,18 +2229,18 @@
         <v>1008.52</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>21</v>
@@ -2259,18 +2259,18 @@
         <v>922.91</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>22</v>
@@ -2287,18 +2287,18 @@
         <v>800</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>23</v>
@@ -2315,18 +2315,18 @@
         <v>1000</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>24</v>
@@ -2345,18 +2345,18 @@
         <v>1554.28</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>25</v>
@@ -2373,18 +2373,18 @@
         <v>533.46</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>26</v>
@@ -2401,18 +2401,18 @@
         <v>703</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>27</v>
@@ -2429,18 +2429,18 @@
         <v>450</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>28</v>
@@ -2457,18 +2457,18 @@
         <v>2450</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>29</v>
@@ -2487,18 +2487,18 @@
         <v>4808.5</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>30</v>
@@ -2515,18 +2515,18 @@
         <v>291.5</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>31</v>
@@ -2543,18 +2543,18 @@
         <v>703</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>32</v>
@@ -2571,18 +2571,18 @@
         <v>600</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>33</v>
@@ -2599,18 +2599,18 @@
         <v>372.45</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>34</v>
@@ -2629,18 +2629,18 @@
         <v>698.86</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>35</v>
@@ -2657,18 +2657,18 @@
         <v>800</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>36</v>
@@ -2685,18 +2685,18 @@
         <v>540</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>26</v>
@@ -2713,18 +2713,18 @@
         <v>703</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>37</v>
@@ -2741,18 +2741,18 @@
         <v>6100</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>38</v>
@@ -2769,18 +2769,18 @@
         <v>800</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>39</v>
@@ -2797,18 +2797,18 @@
         <v>1086.74</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>40</v>
@@ -2827,18 +2827,18 @@
         <v>2352.5</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>41</v>
@@ -2857,18 +2857,18 @@
         <v>-59.84</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>42</v>
@@ -2885,18 +2885,18 @@
         <v>300</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>43</v>
@@ -2913,18 +2913,18 @@
         <v>800</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>44</v>
@@ -2941,18 +2941,18 @@
         <v>800</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>45</v>
@@ -2969,18 +2969,18 @@
         <v>600</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>46</v>
@@ -2997,18 +2997,18 @@
         <v>1300</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>47</v>
@@ -3025,18 +3025,18 @@
         <v>1250</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>48</v>
@@ -3053,21 +3053,21 @@
         <v>850</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>49</v>
+        <v>415</v>
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
@@ -3081,21 +3081,21 @@
         <v>802</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="26">
       <c r="A34" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
@@ -3111,21 +3111,21 @@
         <v>3201.69</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
@@ -3139,21 +3139,21 @@
         <v>1300</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
@@ -3167,21 +3167,21 @@
         <v>800</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
@@ -3197,21 +3197,21 @@
         <v>982.07</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
@@ -3229,21 +3229,21 @@
         <v>2042.86</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
@@ -3259,21 +3259,21 @@
         <v>982.07</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
@@ -3289,21 +3289,21 @@
         <v>693.45</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="26">
       <c r="A41" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
@@ -3319,21 +3319,21 @@
         <v>982.07</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
@@ -3347,21 +3347,21 @@
         <v>850</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
@@ -3375,21 +3375,21 @@
         <v>850</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
@@ -3407,18 +3407,18 @@
         <v>1349.02</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>43</v>
@@ -3435,21 +3435,21 @@
         <v>800</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
@@ -3463,21 +3463,21 @@
         <v>600</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
@@ -3491,21 +3491,21 @@
         <v>850</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
@@ -3519,21 +3519,21 @@
         <v>500</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
@@ -3547,21 +3547,21 @@
         <v>850</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
@@ -3575,21 +3575,21 @@
         <v>2800</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
@@ -3603,18 +3603,18 @@
         <v>850</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>22</v>
@@ -3631,21 +3631,21 @@
         <v>2250</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
@@ -3659,21 +3659,21 @@
         <v>500</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
@@ -3689,21 +3689,21 @@
         <v>1214.8699999999999</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
@@ -3719,21 +3719,21 @@
         <v>1267.81</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
@@ -3747,21 +3747,21 @@
         <v>750</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
@@ -3777,21 +3777,21 @@
         <v>825.25</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
@@ -3807,18 +3807,18 @@
         <v>4345.92</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>35</v>
@@ -3835,21 +3835,21 @@
         <v>800</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
@@ -3865,21 +3865,21 @@
         <v>7661.6</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
@@ -3895,21 +3895,21 @@
         <v>857.92</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
@@ -3923,21 +3923,21 @@
         <v>300</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
@@ -3957,21 +3957,21 @@
         <v>5295.93</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
@@ -3985,21 +3985,21 @@
         <v>620.75</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
@@ -4015,21 +4015,21 @@
         <v>1764.55</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
@@ -4043,21 +4043,21 @@
         <v>850</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
@@ -4075,21 +4075,21 @@
         <v>34046.18</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
@@ -4103,21 +4103,21 @@
         <v>1000</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
@@ -4131,21 +4131,21 @@
         <v>850</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
@@ -4159,21 +4159,21 @@
         <v>850</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
@@ -4187,21 +4187,21 @@
         <v>149.94</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="72" spans="1:13">
       <c r="A72" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
@@ -4217,21 +4217,21 @@
         <v>1508</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="73" spans="1:13">
       <c r="A73" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
@@ -4245,21 +4245,21 @@
         <v>703</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="74" spans="1:13">
       <c r="A74" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
@@ -4275,21 +4275,21 @@
         <v>1106.22</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="75" spans="1:13">
       <c r="A75" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
@@ -4303,21 +4303,21 @@
         <v>600</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="76" spans="1:13">
       <c r="A76" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
@@ -4331,21 +4331,21 @@
         <v>500</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="77" spans="1:13">
       <c r="A77" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
@@ -4359,21 +4359,21 @@
         <v>1000</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="78" spans="1:13">
       <c r="A78" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
@@ -4389,21 +4389,21 @@
         <v>1106.22</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="79" spans="1:13">
       <c r="A79" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
@@ -4419,21 +4419,21 @@
         <v>1519.42</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="80" spans="1:13">
       <c r="A80" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
@@ -4447,21 +4447,21 @@
         <v>800</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="81" spans="1:13">
       <c r="A81" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F81" s="6"/>
       <c r="G81" s="6"/>
@@ -4475,21 +4475,21 @@
         <v>850</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="82" spans="1:13">
       <c r="A82" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
@@ -4503,21 +4503,21 @@
         <v>315.64999999999998</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="83" spans="1:13">
       <c r="A83" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F83" s="6"/>
       <c r="G83" s="6"/>
@@ -4531,21 +4531,21 @@
         <v>13.5</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="84" spans="1:13">
       <c r="A84" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
@@ -4561,21 +4561,21 @@
         <v>2596.6</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="85" spans="1:13">
       <c r="A85" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
@@ -4589,21 +4589,21 @@
         <v>600</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="86" spans="1:13">
       <c r="A86" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
@@ -4617,21 +4617,21 @@
         <v>850</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="87" spans="1:13">
       <c r="A87" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
@@ -4645,21 +4645,21 @@
         <v>600</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="88" spans="1:13">
       <c r="A88" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
@@ -4673,21 +4673,21 @@
         <v>1672</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="89" spans="1:13">
       <c r="A89" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F89" s="6"/>
       <c r="G89" s="6"/>
@@ -4703,18 +4703,18 @@
         <v>1900</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="90" spans="1:13">
       <c r="A90" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>22</v>
@@ -4731,21 +4731,21 @@
         <v>850</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="91" spans="1:13">
       <c r="A91" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
@@ -4759,21 +4759,21 @@
         <v>600</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="92" spans="1:13">
       <c r="A92" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
@@ -4789,21 +4789,21 @@
         <v>2596.6</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="93" spans="1:13">
       <c r="A93" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F93" s="6"/>
       <c r="G93" s="6"/>
@@ -4817,21 +4817,21 @@
         <v>800</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="94" spans="1:13">
       <c r="A94" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F94" s="6"/>
       <c r="G94" s="6"/>
@@ -4845,21 +4845,21 @@
         <v>800</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="95" spans="1:13">
       <c r="A95" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F95" s="6"/>
       <c r="G95" s="6"/>
@@ -4873,21 +4873,21 @@
         <v>160</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="96" spans="1:13">
       <c r="A96" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F96" s="6"/>
       <c r="G96" s="6"/>
@@ -4901,21 +4901,21 @@
         <v>300</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="97" spans="1:13">
       <c r="A97" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F97" s="6"/>
       <c r="G97" s="6"/>
@@ -4931,18 +4931,18 @@
         <v>982.07</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="98" spans="1:13">
       <c r="A98" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>22</v>
@@ -4959,21 +4959,21 @@
         <v>800</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="99" spans="1:13">
       <c r="A99" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F99" s="6"/>
       <c r="G99" s="6"/>
@@ -4987,21 +4987,21 @@
         <v>422.91</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="100" spans="1:13">
       <c r="A100" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F100" s="6"/>
       <c r="G100" s="6"/>
@@ -5015,21 +5015,21 @@
         <v>800</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="101" spans="1:13">
       <c r="A101" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F101" s="6"/>
       <c r="G101" s="6"/>
@@ -5045,21 +5045,21 @@
         <v>1549.22</v>
       </c>
       <c r="M101" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="102" spans="1:13">
       <c r="A102" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F102" s="6"/>
       <c r="G102" s="6"/>
@@ -5073,21 +5073,21 @@
         <v>800</v>
       </c>
       <c r="M102" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="103" spans="1:13">
       <c r="A103" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F103" s="6"/>
       <c r="G103" s="6"/>
@@ -5103,21 +5103,21 @@
         <v>982.07</v>
       </c>
       <c r="M103" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="104" spans="1:13">
       <c r="A104" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F104" s="6"/>
       <c r="G104" s="6"/>
@@ -5133,21 +5133,21 @@
         <v>1284.27</v>
       </c>
       <c r="M104" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="105" spans="1:13">
       <c r="A105" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F105" s="6"/>
       <c r="G105" s="6"/>
@@ -5161,21 +5161,21 @@
         <v>149.94</v>
       </c>
       <c r="M105" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="106" spans="1:13">
       <c r="A106" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F106" s="6"/>
       <c r="G106" s="6"/>
@@ -5189,21 +5189,21 @@
         <v>800</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="107" spans="1:13">
       <c r="A107" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F107" s="6"/>
       <c r="G107" s="6"/>
@@ -5219,21 +5219,21 @@
         <v>896.17</v>
       </c>
       <c r="M107" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="108" spans="1:13">
       <c r="A108" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F108" s="6"/>
       <c r="G108" s="6"/>
@@ -5247,21 +5247,21 @@
         <v>500</v>
       </c>
       <c r="M108" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="109" spans="1:13">
       <c r="A109" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F109" s="6"/>
       <c r="G109" s="6"/>
@@ -5275,21 +5275,21 @@
         <v>2500</v>
       </c>
       <c r="M109" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="110" spans="1:13">
       <c r="A110" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F110" s="6"/>
       <c r="G110" s="6"/>
@@ -5303,21 +5303,21 @@
         <v>703</v>
       </c>
       <c r="M110" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="111" spans="1:13">
       <c r="A111" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F111" s="6"/>
       <c r="G111" s="6"/>
@@ -5331,21 +5331,21 @@
         <v>1093</v>
       </c>
       <c r="M111" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="112" spans="1:13">
       <c r="A112" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="D112" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="F112" s="6"/>
       <c r="G112" s="6"/>
@@ -5359,21 +5359,21 @@
         <v>3000</v>
       </c>
       <c r="M112" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="113" spans="1:13">
       <c r="A113" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="D113" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="F113" s="6"/>
       <c r="G113" s="6"/>
@@ -5387,21 +5387,21 @@
         <v>555.6</v>
       </c>
       <c r="M113" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="114" spans="1:13">
       <c r="A114" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F114" s="6"/>
       <c r="G114" s="6"/>
@@ -5415,21 +5415,21 @@
         <v>864</v>
       </c>
       <c r="M114" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="115" spans="1:13">
       <c r="A115" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F115" s="6"/>
       <c r="G115" s="6">
@@ -5445,21 +5445,21 @@
         <v>4320</v>
       </c>
       <c r="M115" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="116" spans="1:13" s="2" customFormat="1">
       <c r="A116" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="B116" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="B116" s="3" t="s">
-        <v>379</v>
-      </c>
       <c r="C116" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="D116" s="3" t="s">
         <v>380</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>381</v>
       </c>
       <c r="E116" s="5"/>
       <c r="F116" s="6"/>
@@ -5474,21 +5474,21 @@
         <v>1000</v>
       </c>
       <c r="M116" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="117" spans="1:13">
       <c r="A117" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F117" s="6"/>
       <c r="G117" s="6"/>
@@ -5502,21 +5502,21 @@
         <v>1080</v>
       </c>
       <c r="M117" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="118" spans="1:13">
       <c r="A118" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F118" s="6"/>
       <c r="H118" s="6"/>
@@ -5529,21 +5529,21 @@
         <v>1000</v>
       </c>
       <c r="M118" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="119" spans="1:13">
       <c r="A119" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="D119" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>126</v>
       </c>
       <c r="F119" s="6"/>
       <c r="G119" s="6">
@@ -5557,21 +5557,21 @@
         <v>1620</v>
       </c>
       <c r="M119" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="120" spans="1:13">
       <c r="A120" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F120" s="6"/>
       <c r="G120" s="6"/>
@@ -5585,21 +5585,21 @@
         <v>1000</v>
       </c>
       <c r="M120" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="121" spans="1:13" ht="26">
       <c r="A121" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="D121" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="D121" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="F121" s="6"/>
       <c r="G121" s="6"/>
@@ -5613,21 +5613,21 @@
         <v>2000</v>
       </c>
       <c r="M121" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="122" spans="1:13">
       <c r="A122" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F122" s="6"/>
       <c r="G122" s="6">
@@ -5643,21 +5643,21 @@
         <v>19500</v>
       </c>
       <c r="M122" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="123" spans="1:13">
       <c r="A123" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="D123" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="D123" s="3" t="s">
-        <v>132</v>
       </c>
       <c r="F123" s="6"/>
       <c r="G123" s="6"/>
@@ -5671,21 +5671,21 @@
         <v>1500</v>
       </c>
       <c r="M123" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="124" spans="1:13" ht="26">
       <c r="A124" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="D124" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="D124" s="3" t="s">
-        <v>134</v>
       </c>
       <c r="F124" s="6"/>
       <c r="G124" s="6">
@@ -5699,21 +5699,21 @@
         <v>1000</v>
       </c>
       <c r="M124" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="125" spans="1:13">
       <c r="A125" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="D125" s="3" t="s">
         <v>135</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="D125" s="3" t="s">
-        <v>136</v>
       </c>
       <c r="F125" s="6"/>
       <c r="G125" s="6">
@@ -5729,18 +5729,18 @@
         <v>2700</v>
       </c>
       <c r="M125" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="126" spans="1:13" ht="26">
       <c r="A126" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D126" s="3"/>
       <c r="F126" s="6"/>
@@ -5755,21 +5755,21 @@
         <v>10000</v>
       </c>
       <c r="M126" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="127" spans="1:13">
       <c r="A127" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="D127" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="D127" s="3" t="s">
-        <v>139</v>
       </c>
       <c r="F127" s="6"/>
       <c r="G127" s="6"/>
@@ -5783,21 +5783,21 @@
         <v>2000</v>
       </c>
       <c r="M127" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="128" spans="1:13" ht="26">
       <c r="A128" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="D128" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>141</v>
       </c>
       <c r="F128" s="6"/>
       <c r="G128" s="6"/>
@@ -5811,21 +5811,21 @@
         <v>1500</v>
       </c>
       <c r="M128" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="129" spans="1:13">
       <c r="A129" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F129" s="6"/>
       <c r="G129" s="6">
@@ -5839,21 +5839,21 @@
         <v>5400</v>
       </c>
       <c r="M129" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="130" spans="1:13">
       <c r="A130" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F130" s="6"/>
       <c r="G130" s="6">
@@ -5869,21 +5869,21 @@
         <v>6400</v>
       </c>
       <c r="M130" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="131" spans="1:13">
       <c r="A131" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="D131" s="3" t="s">
         <v>144</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="D131" s="3" t="s">
-        <v>145</v>
       </c>
       <c r="F131" s="6"/>
       <c r="G131" s="6"/>
@@ -5899,21 +5899,21 @@
         <v>4500</v>
       </c>
       <c r="M131" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="132" spans="1:13">
       <c r="A132" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F132" s="6"/>
       <c r="G132" s="6">
@@ -5931,21 +5931,21 @@
         <v>14840</v>
       </c>
       <c r="M132" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="133" spans="1:13">
       <c r="A133" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F133" s="6"/>
       <c r="G133" s="6">
@@ -5959,21 +5959,21 @@
         <v>3000</v>
       </c>
       <c r="M133" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="134" spans="1:13" ht="26">
       <c r="A134" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="D134" s="3" t="s">
         <v>148</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="D134" s="3" t="s">
-        <v>149</v>
       </c>
       <c r="F134" s="6"/>
       <c r="G134" s="6"/>
@@ -5987,21 +5987,21 @@
         <v>2417</v>
       </c>
       <c r="M134" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="135" spans="1:13">
       <c r="A135" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F135" s="6"/>
       <c r="G135" s="6">
@@ -6019,21 +6019,21 @@
         <v>70609.56</v>
       </c>
       <c r="M135" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="136" spans="1:13">
       <c r="A136" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="D136" s="3" t="s">
         <v>151</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="D136" s="3" t="s">
-        <v>152</v>
       </c>
       <c r="F136" s="6"/>
       <c r="G136" s="6">
@@ -6047,21 +6047,21 @@
         <v>16000</v>
       </c>
       <c r="M136" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="137" spans="1:13" s="2" customFormat="1">
       <c r="A137" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="B137" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="B137" s="3" t="s">
+      <c r="C137" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="D137" s="3" t="s">
         <v>383</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="D137" s="3" t="s">
-        <v>384</v>
       </c>
       <c r="E137" s="5"/>
       <c r="F137" s="6"/>
@@ -6075,21 +6075,21 @@
         <v>1000</v>
       </c>
       <c r="M137" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="138" spans="1:13">
       <c r="A138" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F138" s="6"/>
       <c r="G138" s="6">
@@ -6103,21 +6103,21 @@
         <v>1500</v>
       </c>
       <c r="M138" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="139" spans="1:13">
       <c r="A139" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="D139" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="B139" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="D139" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="F139" s="6"/>
       <c r="G139" s="6"/>
@@ -6133,18 +6133,18 @@
         <v>2587</v>
       </c>
       <c r="M139" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="140" spans="1:13" ht="26">
       <c r="A140" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D140" s="3" t="s">
         <v>34</v>
@@ -6161,18 +6161,18 @@
         <v>20000</v>
       </c>
       <c r="M140" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="141" spans="1:13">
       <c r="A141" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D141" s="3"/>
       <c r="F141" s="6"/>
@@ -6187,21 +6187,21 @@
         <v>1736.1</v>
       </c>
       <c r="M141" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="142" spans="1:13">
       <c r="A142" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F142" s="6"/>
       <c r="G142" s="6">
@@ -6217,21 +6217,21 @@
         <v>14020</v>
       </c>
       <c r="M142" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="143" spans="1:13">
       <c r="A143" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="D143" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="D143" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="F143" s="6"/>
       <c r="G143" s="6"/>
@@ -6247,21 +6247,21 @@
         <v>4279.17</v>
       </c>
       <c r="M143" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="144" spans="1:13">
       <c r="A144" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="D144" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="B144" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="C144" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="D144" s="3" t="s">
-        <v>161</v>
       </c>
       <c r="F144" s="6"/>
       <c r="G144" s="6"/>
@@ -6275,21 +6275,21 @@
         <v>694.45</v>
       </c>
       <c r="M144" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="145" spans="1:13">
       <c r="A145" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F145" s="6"/>
       <c r="G145" s="6"/>
@@ -6303,21 +6303,21 @@
         <v>2500</v>
       </c>
       <c r="M145" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="146" spans="1:13">
       <c r="A146" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F146" s="6"/>
       <c r="G146" s="6"/>
@@ -6331,21 +6331,21 @@
         <v>4320</v>
       </c>
       <c r="M146" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="147" spans="1:13" ht="26">
       <c r="A147" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="D147" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="B147" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="C147" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="D147" s="3" t="s">
-        <v>165</v>
       </c>
       <c r="F147" s="6"/>
       <c r="G147" s="6"/>
@@ -6359,21 +6359,21 @@
         <v>230</v>
       </c>
       <c r="M147" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="148" spans="1:13" ht="26">
       <c r="A148" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="D148" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="B148" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="D148" s="3" t="s">
-        <v>167</v>
       </c>
       <c r="F148" s="6"/>
       <c r="G148" s="6"/>
@@ -6389,21 +6389,21 @@
         <v>3000</v>
       </c>
       <c r="M148" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="149" spans="1:13">
       <c r="A149" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F149" s="6"/>
       <c r="G149" s="6"/>
@@ -6417,21 +6417,21 @@
         <v>2000</v>
       </c>
       <c r="M149" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="150" spans="1:13">
       <c r="A150" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F150" s="6"/>
       <c r="G150" s="6">
@@ -6445,21 +6445,21 @@
         <v>1500</v>
       </c>
       <c r="M150" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="151" spans="1:13">
       <c r="A151" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="D151" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="B151" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="C151" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="D151" s="3" t="s">
-        <v>171</v>
       </c>
       <c r="F151" s="6"/>
       <c r="G151" s="6"/>
@@ -6473,21 +6473,21 @@
         <v>2160</v>
       </c>
       <c r="M151" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="152" spans="1:13" ht="26">
       <c r="A152" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="D152" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="B152" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C152" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="D152" s="3" t="s">
-        <v>173</v>
       </c>
       <c r="F152" s="6"/>
       <c r="G152" s="6">
@@ -6501,21 +6501,21 @@
         <v>32400</v>
       </c>
       <c r="M152" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="153" spans="1:13" ht="26">
       <c r="A153" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="D153" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="B153" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="C153" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="D153" s="3" t="s">
-        <v>175</v>
       </c>
       <c r="F153" s="6">
         <v>45672</v>
@@ -6531,21 +6531,21 @@
         <v>107927.25</v>
       </c>
       <c r="M153" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="154" spans="1:13">
       <c r="A154" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F154" s="6"/>
       <c r="G154" s="6">
@@ -6563,21 +6563,21 @@
         <v>10670</v>
       </c>
       <c r="M154" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="155" spans="1:13" ht="26">
       <c r="A155" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F155" s="6"/>
       <c r="G155" s="6">
@@ -6591,21 +6591,21 @@
         <v>62100</v>
       </c>
       <c r="M155" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="156" spans="1:13" ht="26">
       <c r="A156" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="D156" s="3" t="s">
         <v>178</v>
-      </c>
-      <c r="B156" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="C156" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="D156" s="3" t="s">
-        <v>179</v>
       </c>
       <c r="F156" s="6"/>
       <c r="G156" s="6">
@@ -6619,21 +6619,21 @@
         <v>3700</v>
       </c>
       <c r="M156" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="157" spans="1:13" s="2" customFormat="1" ht="26">
       <c r="A157" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="B157" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="B157" s="3" t="s">
+      <c r="C157" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="D157" s="3" t="s">
         <v>386</v>
-      </c>
-      <c r="C157" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="D157" s="3" t="s">
-        <v>387</v>
       </c>
       <c r="E157" s="5"/>
       <c r="F157" s="6"/>
@@ -6648,21 +6648,21 @@
         <v>1000</v>
       </c>
       <c r="M157" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="158" spans="1:13" ht="26">
       <c r="A158" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="D158" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="B158" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C158" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="D158" s="3" t="s">
-        <v>181</v>
       </c>
       <c r="F158" s="6"/>
       <c r="G158" s="6">
@@ -6676,21 +6676,21 @@
         <v>500</v>
       </c>
       <c r="M158" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="159" spans="1:13">
       <c r="A159" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="D159" s="3" t="s">
         <v>182</v>
-      </c>
-      <c r="B159" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C159" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="D159" s="3" t="s">
-        <v>183</v>
       </c>
       <c r="F159" s="6"/>
       <c r="G159" s="6">
@@ -6704,21 +6704,21 @@
         <v>2712</v>
       </c>
       <c r="M159" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="160" spans="1:13">
       <c r="A160" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F160" s="6"/>
       <c r="G160" s="6"/>
@@ -6732,21 +6732,21 @@
         <v>500</v>
       </c>
       <c r="M160" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="161" spans="1:13">
       <c r="A161" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F161" s="6"/>
       <c r="G161" s="6"/>
@@ -6760,21 +6760,21 @@
         <v>10860</v>
       </c>
       <c r="M161" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="162" spans="1:13">
       <c r="A162" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="D162" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="B162" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="C162" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="D162" s="3" t="s">
-        <v>187</v>
       </c>
       <c r="F162" s="6"/>
       <c r="G162" s="6">
@@ -6788,21 +6788,21 @@
         <v>5400</v>
       </c>
       <c r="M162" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="163" spans="1:13" ht="26">
       <c r="A163" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="D163" s="3" t="s">
         <v>188</v>
-      </c>
-      <c r="B163" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="C163" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="D163" s="3" t="s">
-        <v>189</v>
       </c>
       <c r="F163" s="6"/>
       <c r="G163" s="6"/>
@@ -6816,21 +6816,21 @@
         <v>10000</v>
       </c>
       <c r="M163" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="164" spans="1:13" ht="26">
       <c r="A164" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F164" s="6"/>
       <c r="G164" s="6">
@@ -6844,21 +6844,21 @@
         <v>1080</v>
       </c>
       <c r="M164" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="165" spans="1:13" ht="26">
       <c r="A165" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="D165" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="B165" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="C165" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="D165" s="3" t="s">
-        <v>192</v>
       </c>
       <c r="F165" s="6"/>
       <c r="G165" s="6">
@@ -6872,21 +6872,21 @@
         <v>5600</v>
       </c>
       <c r="M165" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="166" spans="1:13">
       <c r="A166" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F166" s="6"/>
       <c r="G166" s="6">
@@ -6900,21 +6900,21 @@
         <v>27450.43</v>
       </c>
       <c r="M166" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="167" spans="1:13">
       <c r="A167" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F167" s="6"/>
       <c r="G167" s="6"/>
@@ -6930,21 +6930,21 @@
         <v>2687.94</v>
       </c>
       <c r="M167" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="168" spans="1:13" ht="26">
       <c r="A168" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="D168" s="3" t="s">
         <v>195</v>
-      </c>
-      <c r="B168" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="C168" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="D168" s="3" t="s">
-        <v>196</v>
       </c>
       <c r="F168" s="6"/>
       <c r="G168" s="6"/>
@@ -6958,21 +6958,21 @@
         <v>1334.5</v>
       </c>
       <c r="M168" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="169" spans="1:13">
       <c r="A169" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="D169" s="3" t="s">
         <v>197</v>
-      </c>
-      <c r="B169" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="C169" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="D169" s="3" t="s">
-        <v>198</v>
       </c>
       <c r="F169" s="6"/>
       <c r="G169" s="6">
@@ -6990,21 +6990,21 @@
         <v>28515.97</v>
       </c>
       <c r="M169" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="170" spans="1:13" ht="26">
       <c r="A170" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F170" s="6"/>
       <c r="G170" s="6">
@@ -7018,21 +7018,21 @@
         <v>10000</v>
       </c>
       <c r="M170" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="171" spans="1:13">
       <c r="A171" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="D171" s="3" t="s">
         <v>200</v>
-      </c>
-      <c r="B171" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C171" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="D171" s="3" t="s">
-        <v>201</v>
       </c>
       <c r="F171" s="6"/>
       <c r="G171" s="6"/>
@@ -7046,7 +7046,7 @@
         <v>700</v>
       </c>
       <c r="M171" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>
@@ -7099,13 +7099,13 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B2">
         <v>2016</v>
       </c>
       <c r="C2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>5</v>
@@ -7115,13 +7115,13 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B3">
         <v>2016</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>6</v>
@@ -7131,13 +7131,13 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B4" s="2">
         <v>2016</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>7</v>
@@ -7154,13 +7154,13 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B5" s="2">
         <v>2016</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>8</v>
@@ -7177,13 +7177,13 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B6" s="2">
         <v>2016</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>9</v>
@@ -7200,13 +7200,13 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B7" s="2">
         <v>2016</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>10</v>
@@ -7223,13 +7223,13 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B8" s="2">
         <v>2016</v>
       </c>
       <c r="C8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>5</v>
@@ -7246,13 +7246,13 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B9" s="2">
         <v>2016</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>6</v>
@@ -7269,13 +7269,13 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B10" s="2">
         <v>2016</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>7</v>
@@ -7285,13 +7285,13 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B11" s="2">
         <v>2016</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>8</v>
@@ -7308,13 +7308,13 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B12" s="2">
         <v>2016</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>9</v>
@@ -7331,13 +7331,13 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B13" s="2">
         <v>2016</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>10</v>
